--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Adm-Calcrl.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Adm-Calcrl.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>18.73555533333333</v>
+        <v>13.26223533333333</v>
       </c>
       <c r="H2">
-        <v>56.20666600000001</v>
+        <v>39.786706</v>
       </c>
       <c r="I2">
-        <v>0.4699290876663871</v>
+        <v>0.391007655706778</v>
       </c>
       <c r="J2">
-        <v>0.4699290876663871</v>
+        <v>0.3910076557067781</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>46.12061933333333</v>
+        <v>62.87391666666667</v>
       </c>
       <c r="N2">
-        <v>138.361858</v>
+        <v>188.62175</v>
       </c>
       <c r="O2">
-        <v>0.4800257783842541</v>
+        <v>0.5484251561826182</v>
       </c>
       <c r="P2">
-        <v>0.4800257783842541</v>
+        <v>0.5484251561826182</v>
       </c>
       <c r="Q2">
-        <v>864.0954155272698</v>
+        <v>833.8486791617221</v>
       </c>
       <c r="R2">
-        <v>7776.858739745428</v>
+        <v>7504.638112455499</v>
       </c>
       <c r="S2">
-        <v>0.2255780760924599</v>
+        <v>0.2144384346495891</v>
       </c>
       <c r="T2">
-        <v>0.2255780760924599</v>
+        <v>0.2144384346495892</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>18.73555533333333</v>
+        <v>13.26223533333333</v>
       </c>
       <c r="H3">
-        <v>56.20666600000001</v>
+        <v>39.786706</v>
       </c>
       <c r="I3">
-        <v>0.4699290876663871</v>
+        <v>0.391007655706778</v>
       </c>
       <c r="J3">
-        <v>0.4699290876663871</v>
+        <v>0.3910076557067781</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>105.736532</v>
       </c>
       <c r="O3">
-        <v>0.3668370879852712</v>
+        <v>0.3074331251635</v>
       </c>
       <c r="P3">
-        <v>0.3668370879852713</v>
+        <v>0.3074331251635</v>
       </c>
       <c r="Q3">
-        <v>660.3442153469236</v>
+        <v>467.4342569048435</v>
       </c>
       <c r="R3">
-        <v>5943.097938122313</v>
+        <v>4206.908312143592</v>
       </c>
       <c r="S3">
-        <v>0.1723874180791127</v>
+        <v>0.1202087055567886</v>
       </c>
       <c r="T3">
-        <v>0.1723874180791127</v>
+        <v>0.1202087055567886</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>18.73555533333333</v>
+        <v>13.26223533333333</v>
       </c>
       <c r="H4">
-        <v>56.20666600000001</v>
+        <v>39.786706</v>
       </c>
       <c r="I4">
-        <v>0.4699290876663871</v>
+        <v>0.391007655706778</v>
       </c>
       <c r="J4">
-        <v>0.4699290876663871</v>
+        <v>0.3910076557067781</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>6.161539</v>
+        <v>7.926563000000001</v>
       </c>
       <c r="N4">
-        <v>18.484617</v>
+        <v>23.779689</v>
       </c>
       <c r="O4">
-        <v>0.06412961485064632</v>
+        <v>0.06914038096772557</v>
       </c>
       <c r="P4">
-        <v>0.06412961485064632</v>
+        <v>0.06914038096772555</v>
       </c>
       <c r="Q4">
-        <v>115.4398548729913</v>
+        <v>105.1239438904927</v>
       </c>
       <c r="R4">
-        <v>1038.958693856922</v>
+        <v>946.1154950144339</v>
       </c>
       <c r="S4">
-        <v>0.03013637139916101</v>
+        <v>0.0270344182768639</v>
       </c>
       <c r="T4">
-        <v>0.03013637139916102</v>
+        <v>0.0270344182768639</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>18.73555533333333</v>
+        <v>13.26223533333333</v>
       </c>
       <c r="H5">
-        <v>56.20666600000001</v>
+        <v>39.786706</v>
       </c>
       <c r="I5">
-        <v>0.4699290876663871</v>
+        <v>0.391007655706778</v>
       </c>
       <c r="J5">
-        <v>0.4699290876663871</v>
+        <v>0.3910076557067781</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>8.551794666666666</v>
+        <v>8.598489333333333</v>
       </c>
       <c r="N5">
-        <v>25.655384</v>
+        <v>25.795468</v>
       </c>
       <c r="O5">
-        <v>0.08900751877982832</v>
+        <v>0.07500133768615619</v>
       </c>
       <c r="P5">
-        <v>0.08900751877982832</v>
+        <v>0.07500133768615617</v>
       </c>
       <c r="Q5">
-        <v>160.2226221766382</v>
+        <v>114.0351890498231</v>
       </c>
       <c r="R5">
-        <v>1442.003599589744</v>
+        <v>1026.316701448408</v>
       </c>
       <c r="S5">
-        <v>0.04182722209565354</v>
+        <v>0.02932609722353635</v>
       </c>
       <c r="T5">
-        <v>0.04182722209565354</v>
+        <v>0.02932609722353635</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>58.67532</v>
       </c>
       <c r="I6">
-        <v>0.490568851675588</v>
+        <v>0.5766373150128344</v>
       </c>
       <c r="J6">
-        <v>0.490568851675588</v>
+        <v>0.5766373150128344</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>46.12061933333333</v>
+        <v>62.87391666666667</v>
       </c>
       <c r="N6">
-        <v>138.361858</v>
+        <v>188.62175</v>
       </c>
       <c r="O6">
-        <v>0.4800257783842541</v>
+        <v>0.5484251561826182</v>
       </c>
       <c r="P6">
-        <v>0.4800257783842541</v>
+        <v>0.5484251561826182</v>
       </c>
       <c r="Q6">
-        <v>902.04736599384</v>
+        <v>1229.71572669</v>
       </c>
       <c r="R6">
-        <v>8118.426293944559</v>
+        <v>11067.44154021</v>
       </c>
       <c r="S6">
-        <v>0.2354856948766438</v>
+        <v>0.3162424095466393</v>
       </c>
       <c r="T6">
-        <v>0.2354856948766438</v>
+        <v>0.3162424095466393</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>58.67532</v>
       </c>
       <c r="I7">
-        <v>0.490568851675588</v>
+        <v>0.5766373150128344</v>
       </c>
       <c r="J7">
-        <v>0.490568851675588</v>
+        <v>0.5766373150128344</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>105.736532</v>
       </c>
       <c r="O7">
-        <v>0.3668370879852712</v>
+        <v>0.3074331251635</v>
       </c>
       <c r="P7">
-        <v>0.3668370879852713</v>
+        <v>0.3074331251635</v>
       </c>
       <c r="Q7">
         <v>689.3472056433601</v>
@@ -883,10 +883,10 @@
         <v>6204.124850790241</v>
       </c>
       <c r="S7">
-        <v>0.1799588490049511</v>
+        <v>0.1772774118402853</v>
       </c>
       <c r="T7">
-        <v>0.1799588490049512</v>
+        <v>0.1772774118402853</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>58.67532</v>
       </c>
       <c r="I8">
-        <v>0.490568851675588</v>
+        <v>0.5766373150128344</v>
       </c>
       <c r="J8">
-        <v>0.490568851675588</v>
+        <v>0.5766373150128344</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>6.161539</v>
+        <v>7.926563000000001</v>
       </c>
       <c r="N8">
-        <v>18.484617</v>
+        <v>23.779689</v>
       </c>
       <c r="O8">
-        <v>0.06412961485064632</v>
+        <v>0.06914038096772557</v>
       </c>
       <c r="P8">
-        <v>0.06412961485064632</v>
+        <v>0.06914038096772555</v>
       </c>
       <c r="Q8">
-        <v>120.51009083916</v>
+        <v>155.03120684172</v>
       </c>
       <c r="R8">
-        <v>1084.59081755244</v>
+        <v>1395.28086157548</v>
       </c>
       <c r="S8">
-        <v>0.0314599915156793</v>
+        <v>0.03986892364019375</v>
       </c>
       <c r="T8">
-        <v>0.0314599915156793</v>
+        <v>0.03986892364019375</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>58.67532</v>
       </c>
       <c r="I9">
-        <v>0.490568851675588</v>
+        <v>0.5766373150128344</v>
       </c>
       <c r="J9">
-        <v>0.490568851675588</v>
+        <v>0.5766373150128344</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>8.551794666666666</v>
+        <v>8.598489333333333</v>
       </c>
       <c r="N9">
-        <v>25.655384</v>
+        <v>25.795468</v>
       </c>
       <c r="O9">
-        <v>0.08900751877982832</v>
+        <v>0.07500133768615619</v>
       </c>
       <c r="P9">
-        <v>0.08900751877982832</v>
+        <v>0.07500133768615617</v>
       </c>
       <c r="Q9">
-        <v>167.25976288032</v>
+        <v>168.17303771664</v>
       </c>
       <c r="R9">
-        <v>1505.33786592288</v>
+        <v>1513.55733944976</v>
       </c>
       <c r="S9">
-        <v>0.04366431627831371</v>
+        <v>0.04324856998571602</v>
       </c>
       <c r="T9">
-        <v>0.04366431627831371</v>
+        <v>0.04324856998571601</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,22 +1027,22 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G10">
-        <v>1.258689333333333</v>
+        <v>0.8919193333333334</v>
       </c>
       <c r="H10">
-        <v>3.776068</v>
+        <v>2.675758</v>
       </c>
       <c r="I10">
-        <v>0.03157070711517098</v>
+        <v>0.02629626747232247</v>
       </c>
       <c r="J10">
-        <v>0.03157070711517098</v>
+        <v>0.02629626747232247</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>46.12061933333333</v>
+        <v>62.87391666666667</v>
       </c>
       <c r="N10">
-        <v>138.361858</v>
+        <v>188.62175</v>
       </c>
       <c r="O10">
-        <v>0.4800257783842541</v>
+        <v>0.5484251561826182</v>
       </c>
       <c r="P10">
-        <v>0.4800257783842541</v>
+        <v>0.5484251561826182</v>
       </c>
       <c r="Q10">
-        <v>58.05153160159377</v>
+        <v>56.07846183738889</v>
       </c>
       <c r="R10">
-        <v>522.463784414344</v>
+        <v>504.7061565365</v>
       </c>
       <c r="S10">
-        <v>0.01515475325710126</v>
+        <v>0.01442153459552835</v>
       </c>
       <c r="T10">
-        <v>0.01515475325710126</v>
+        <v>0.01442153459552835</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,22 +1089,22 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F11">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G11">
-        <v>1.258689333333333</v>
+        <v>0.8919193333333334</v>
       </c>
       <c r="H11">
-        <v>3.776068</v>
+        <v>2.675758</v>
       </c>
       <c r="I11">
-        <v>0.03157070711517098</v>
+        <v>0.02629626747232247</v>
       </c>
       <c r="J11">
-        <v>0.03157070711517098</v>
+        <v>0.02629626747232247</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>105.736532</v>
       </c>
       <c r="O11">
-        <v>0.3668370879852712</v>
+        <v>0.3074331251635</v>
       </c>
       <c r="P11">
-        <v>0.3668370879852713</v>
+        <v>0.3074331251635</v>
       </c>
       <c r="Q11">
-        <v>44.36314832401955</v>
+        <v>31.43615237680623</v>
       </c>
       <c r="R11">
-        <v>399.2683349161761</v>
+        <v>282.925371391256</v>
       </c>
       <c r="S11">
-        <v>0.01158130626376521</v>
+        <v>0.008084343689151388</v>
       </c>
       <c r="T11">
-        <v>0.01158130626376521</v>
+        <v>0.008084343689151388</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,22 +1151,22 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F12">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G12">
-        <v>1.258689333333333</v>
+        <v>0.8919193333333334</v>
       </c>
       <c r="H12">
-        <v>3.776068</v>
+        <v>2.675758</v>
       </c>
       <c r="I12">
-        <v>0.03157070711517098</v>
+        <v>0.02629626747232247</v>
       </c>
       <c r="J12">
-        <v>0.03157070711517098</v>
+        <v>0.02629626747232247</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>6.161539</v>
+        <v>7.926563000000001</v>
       </c>
       <c r="N12">
-        <v>18.484617</v>
+        <v>23.779689</v>
       </c>
       <c r="O12">
-        <v>0.06412961485064632</v>
+        <v>0.06914038096772557</v>
       </c>
       <c r="P12">
-        <v>0.06412961485064632</v>
+        <v>0.06914038096772555</v>
       </c>
       <c r="Q12">
-        <v>7.755463416217333</v>
+        <v>7.069854786584668</v>
       </c>
       <c r="R12">
-        <v>69.799170745956</v>
+        <v>63.62869307926201</v>
       </c>
       <c r="S12">
-        <v>0.002024617287858474</v>
+        <v>0.001818133951065585</v>
       </c>
       <c r="T12">
-        <v>0.002024617287858474</v>
+        <v>0.001818133951065585</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,22 +1213,22 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F13">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G13">
-        <v>1.258689333333333</v>
+        <v>0.8919193333333334</v>
       </c>
       <c r="H13">
-        <v>3.776068</v>
+        <v>2.675758</v>
       </c>
       <c r="I13">
-        <v>0.03157070711517098</v>
+        <v>0.02629626747232247</v>
       </c>
       <c r="J13">
-        <v>0.03157070711517098</v>
+        <v>0.02629626747232247</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>8.551794666666666</v>
+        <v>8.598489333333333</v>
       </c>
       <c r="N13">
-        <v>25.655384</v>
+        <v>25.795468</v>
       </c>
       <c r="O13">
-        <v>0.08900751877982832</v>
+        <v>0.07500133768615619</v>
       </c>
       <c r="P13">
-        <v>0.08900751877982832</v>
+        <v>0.07500133768615617</v>
       </c>
       <c r="Q13">
-        <v>10.76405272779022</v>
+        <v>7.669158873860445</v>
       </c>
       <c r="R13">
-        <v>96.87647455011199</v>
+        <v>69.022429864744</v>
       </c>
       <c r="S13">
-        <v>0.002810030306446041</v>
+        <v>0.001972255236577142</v>
       </c>
       <c r="T13">
-        <v>0.002810030306446041</v>
+        <v>0.001972255236577142</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>0.3162143333333333</v>
+        <v>0.2055016666666667</v>
       </c>
       <c r="H14">
-        <v>0.9486429999999999</v>
+        <v>0.6165050000000001</v>
       </c>
       <c r="I14">
-        <v>0.007931353542853873</v>
+        <v>0.006058761808064916</v>
       </c>
       <c r="J14">
-        <v>0.007931353542853873</v>
+        <v>0.006058761808064917</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>46.12061933333333</v>
+        <v>62.87391666666667</v>
       </c>
       <c r="N14">
-        <v>138.361858</v>
+        <v>188.62175</v>
       </c>
       <c r="O14">
-        <v>0.4800257783842541</v>
+        <v>0.5484251561826182</v>
       </c>
       <c r="P14">
-        <v>0.4800257783842541</v>
+        <v>0.5484251561826182</v>
       </c>
       <c r="Q14">
-        <v>14.58400089541044</v>
+        <v>12.92069466486111</v>
       </c>
       <c r="R14">
-        <v>131.256008058694</v>
+        <v>116.28625198375</v>
       </c>
       <c r="S14">
-        <v>0.003807254158049142</v>
+        <v>0.003322777390861284</v>
       </c>
       <c r="T14">
-        <v>0.003807254158049142</v>
+        <v>0.003322777390861285</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>0.3162143333333333</v>
+        <v>0.2055016666666667</v>
       </c>
       <c r="H15">
-        <v>0.9486429999999999</v>
+        <v>0.6165050000000001</v>
       </c>
       <c r="I15">
-        <v>0.007931353542853873</v>
+        <v>0.006058761808064916</v>
       </c>
       <c r="J15">
-        <v>0.007931353542853873</v>
+        <v>0.006058761808064917</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>105.736532</v>
       </c>
       <c r="O15">
-        <v>0.3668370879852712</v>
+        <v>0.3074331251635</v>
       </c>
       <c r="P15">
-        <v>0.3668370879852713</v>
+        <v>0.3074331251635</v>
       </c>
       <c r="Q15">
-        <v>11.14513565845289</v>
+        <v>7.243011184517779</v>
       </c>
       <c r="R15">
-        <v>100.306220926076</v>
+        <v>65.18710066066002</v>
       </c>
       <c r="S15">
-        <v>0.002909514637442179</v>
+        <v>0.001862664077274655</v>
       </c>
       <c r="T15">
-        <v>0.002909514637442179</v>
+        <v>0.001862664077274655</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>0.3162143333333333</v>
+        <v>0.2055016666666667</v>
       </c>
       <c r="H16">
-        <v>0.9486429999999999</v>
+        <v>0.6165050000000001</v>
       </c>
       <c r="I16">
-        <v>0.007931353542853873</v>
+        <v>0.006058761808064916</v>
       </c>
       <c r="J16">
-        <v>0.007931353542853873</v>
+        <v>0.006058761808064917</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>6.161539</v>
+        <v>7.926563000000001</v>
       </c>
       <c r="N16">
-        <v>18.484617</v>
+        <v>23.779689</v>
       </c>
       <c r="O16">
-        <v>0.06412961485064632</v>
+        <v>0.06914038096772557</v>
       </c>
       <c r="P16">
-        <v>0.06412961485064632</v>
+        <v>0.06914038096772555</v>
       </c>
       <c r="Q16">
-        <v>1.948366947192333</v>
+        <v>1.628921907438334</v>
       </c>
       <c r="R16">
-        <v>17.535302524731</v>
+        <v>14.660297166945</v>
       </c>
       <c r="S16">
-        <v>0.0005086346479475281</v>
+        <v>0.0004189050996023141</v>
       </c>
       <c r="T16">
-        <v>0.0005086346479475281</v>
+        <v>0.000418905099602314</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G17">
-        <v>0.3162143333333333</v>
+        <v>0.2055016666666667</v>
       </c>
       <c r="H17">
-        <v>0.9486429999999999</v>
+        <v>0.6165050000000001</v>
       </c>
       <c r="I17">
-        <v>0.007931353542853873</v>
+        <v>0.006058761808064916</v>
       </c>
       <c r="J17">
-        <v>0.007931353542853873</v>
+        <v>0.006058761808064917</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>8.551794666666666</v>
+        <v>8.598489333333333</v>
       </c>
       <c r="N17">
-        <v>25.655384</v>
+        <v>25.795468</v>
       </c>
       <c r="O17">
-        <v>0.08900751877982832</v>
+        <v>0.07500133768615619</v>
       </c>
       <c r="P17">
-        <v>0.08900751877982832</v>
+        <v>0.07500133768615617</v>
       </c>
       <c r="Q17">
-        <v>2.704200049323555</v>
+        <v>1.767003888815556</v>
       </c>
       <c r="R17">
-        <v>24.33780044391199</v>
+        <v>15.90303499934</v>
       </c>
       <c r="S17">
-        <v>0.0007059500994150241</v>
+        <v>0.000454415240326663</v>
       </c>
       <c r="T17">
-        <v>0.0007059500994150241</v>
+        <v>0.000454415240326663</v>
       </c>
     </row>
   </sheetData>
